--- a/HTML_CSS.xlsx
+++ b/HTML_CSS.xlsx
@@ -8,27 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\202301_ReactJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A52E23-341F-457A-9F87-C3402ED09AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D048204-C53E-4881-BD53-09240B6FF8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
     <sheet name="1.HTML" sheetId="2" r:id="rId2"/>
     <sheet name="2.CSS" sheetId="3" r:id="rId3"/>
-    <sheet name="TheBand" sheetId="4" r:id="rId4"/>
+    <sheet name="3.CSS" sheetId="5" r:id="rId4"/>
+    <sheet name="4.Flexbox" sheetId="7" r:id="rId5"/>
+    <sheet name="Theshop" sheetId="8" r:id="rId6"/>
+    <sheet name="TheBand" sheetId="4" r:id="rId7"/>
+    <sheet name="QA1" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="446">
   <si>
     <t>HTML, CSS từ Zero tới Hero</t>
   </si>
@@ -479,16 +492,10 @@
     <t xml:space="preserve">  font-size: 2rem;</t>
   </si>
   <si>
-    <t>div {</t>
-  </si>
-  <si>
     <t xml:space="preserve">  font-size: 10px;</t>
   </si>
   <si>
     <t>// 40px</t>
-  </si>
-  <si>
-    <t>h2 {</t>
   </si>
   <si>
     <t xml:space="preserve">  font-size: 2em;</t>
@@ -739,29 +746,1134 @@
     <t>1. Tạo project</t>
   </si>
   <si>
-    <t>2. Tạo file index.html</t>
-  </si>
-  <si>
     <t>3. Tạo file CSS /assets/style/style.css</t>
   </si>
   <si>
-    <t>4. Import file style.css vào index.html</t>
-  </si>
-  <si>
-    <t>5. Reset CSS</t>
-  </si>
-  <si>
-    <t>6. Tạo các thẻ cơ bản trong html body</t>
-  </si>
-  <si>
     <t>#wrapper, #header, #slider, #content, #footer</t>
+  </si>
+  <si>
+    <t>TheBand</t>
+  </si>
+  <si>
+    <t>Các thành phần thường gặp:</t>
+  </si>
+  <si>
+    <t>2. Navigation (điều hướng)</t>
+  </si>
+  <si>
+    <t>3. Breadcrumb</t>
+  </si>
+  <si>
+    <t>4. Sidebar</t>
+  </si>
+  <si>
+    <t>5. Slider</t>
+  </si>
+  <si>
+    <t>màn trượt trình diễn nội dung: ảnh, video,…</t>
+  </si>
+  <si>
+    <t>báo đường dẫn tới trang web</t>
+  </si>
+  <si>
+    <t>6. Content</t>
+  </si>
+  <si>
+    <t>7. Footer</t>
+  </si>
+  <si>
+    <t>thanh điều hướng phụ</t>
+  </si>
+  <si>
+    <t>8. Banner</t>
+  </si>
+  <si>
+    <t>Ảnh quảng cáo</t>
+  </si>
+  <si>
+    <t>4. Tạo thư mục chứa image /assets/img</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Tạo file index.html =&gt; Gõ [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! + Tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] để tự động khởi tạo nội dung</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Import file style.css vào index.html</t>
+  </si>
+  <si>
+    <t>7. Tạo các format cơ bản trong style.css</t>
+  </si>
+  <si>
+    <t>/* Reset CSS */</t>
+  </si>
+  <si>
+    <t>* {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  padding: 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  margin: 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  box-sizing: border-box;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  font-family: Arial, Helvetica, sans-serif;</t>
+  </si>
+  <si>
+    <t>6. Tạo các thẻ &lt;div&gt; cơ bản trong html body</t>
+  </si>
+  <si>
+    <t>ID   #first-heading</t>
+  </si>
+  <si>
+    <t>Class   .second-heading</t>
+  </si>
+  <si>
+    <t>Direct   a, h1, h2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS Background-origin</t>
+  </si>
+  <si>
+    <t>Tương tự background-clip, quyết định background-image đổ từ ranh giới nào</t>
+  </si>
+  <si>
+    <t>CSS Background-position</t>
+  </si>
+  <si>
+    <t>Vị trí của background image</t>
+  </si>
+  <si>
+    <t>background-position: top right bottom left center 10px 10%</t>
+  </si>
+  <si>
+    <t>background-position: top 20px right 10px;</t>
+  </si>
+  <si>
+    <t>background-position: 10px 20px;</t>
+  </si>
+  <si>
+    <t>// trục x,y tính từ top-left</t>
+  </si>
+  <si>
+    <t>CSS shorthand cho Background</t>
+  </si>
+  <si>
+    <t>Gộp toàn bộ cho background</t>
+  </si>
+  <si>
+    <t>background: red url(…) no-repeat center / contain;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS background-size, background-origin, background-position </t>
+  </si>
+  <si>
+    <t>CSS functions</t>
+  </si>
+  <si>
+    <t>- linear-gradient()</t>
+  </si>
+  <si>
+    <t>- rgba()</t>
+  </si>
+  <si>
+    <t>- calc()</t>
+  </si>
+  <si>
+    <t>- attr()</t>
+  </si>
+  <si>
+    <t>- var()</t>
+  </si>
+  <si>
+    <t>red-green-blue-alpha: tạo màu trong suốt</t>
+  </si>
+  <si>
+    <t>red-green-blue</t>
+  </si>
+  <si>
+    <t>dùng biến CSS</t>
+  </si>
+  <si>
+    <t>tính toán: calc(80% + 20px)</t>
+  </si>
+  <si>
+    <t>thuộc tính của thẻ html - dùng với lớp giả (pseudo class)</t>
+  </si>
+  <si>
+    <t>Pseudo class</t>
+  </si>
+  <si>
+    <t>- :root</t>
+  </si>
+  <si>
+    <t>- :hover</t>
+  </si>
+  <si>
+    <t>tham chiếu tới phần tử gốc html</t>
+  </si>
+  <si>
+    <t>kích hoạt khi di chuột vào phần tử.</t>
+  </si>
+  <si>
+    <t>- :active</t>
+  </si>
+  <si>
+    <t>kích hoạt khi bấm chuột vào phần tử</t>
+  </si>
+  <si>
+    <t>- :first-child</t>
+  </si>
+  <si>
+    <t>- :last-child</t>
+  </si>
+  <si>
+    <t>lấy đửa con đầu tiên</t>
+  </si>
+  <si>
+    <t>lấy đứa con cuối cùng</t>
+  </si>
+  <si>
+    <t>- …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  font-size: 40px;</t>
+  </si>
+  <si>
+    <r>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>Pseudo class; pseudo element;</t>
+  </si>
+  <si>
+    <t>Pseudo element</t>
+  </si>
+  <si>
+    <t>- ::before</t>
+  </si>
+  <si>
+    <t>- ::after</t>
+  </si>
+  <si>
+    <t>- ::first-letter</t>
+  </si>
+  <si>
+    <t>- ::first-line</t>
+  </si>
+  <si>
+    <t>- ::selection</t>
+  </si>
+  <si>
+    <t>Mỗi element chỉ tồn tại một before, một after</t>
+  </si>
+  <si>
+    <t>tạo phần tử giả luôn đứng ở đầu</t>
+  </si>
+  <si>
+    <t>tạo phần tử giả luôn đúng ở cuối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  content: "Hi";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  display: block;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  width: 10px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  height: 10px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  background-color: #ccc;</t>
+  </si>
+  <si>
+    <r>
+      <t>.box::</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>lấy ký tự đầu tiên. VD viết hoa chữ đầu đoạn văn.</t>
+  </si>
+  <si>
+    <t>lấy dòng đầu tiên.</t>
+  </si>
+  <si>
+    <t>lấy phần được bôi đen</t>
+  </si>
+  <si>
+    <t>CSS position: relative</t>
+  </si>
+  <si>
+    <t>CSS Position: relative, absolute, fixed, sticky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lấy vị trí hiện tại của phần tử làm gốc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  position: relative;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  top: 100px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  left: 100px;</t>
+  </si>
+  <si>
+    <t>Di chuyển 4 hướng mà không phụ thuộc/ảnh hưởng các phần tử khác.</t>
+  </si>
+  <si>
+    <t>CSS position: absolute</t>
+  </si>
+  <si>
+    <t>Lấy thẻ cha gần nhất có thuộc tính position bất kỳ (relative, absolute, fixed, sticky) để làm gốc tọa độ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  position: absolute;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  top: 0px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  left: 0px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bottom: 0px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  right: 0px;</t>
+  </si>
+  <si>
+    <t>// Phủ toàn bộ thẻ cha .box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  background-color: rgba(255, 255, 255, 0.5);</t>
+  </si>
+  <si>
+    <t>CSS position: fixed</t>
+  </si>
+  <si>
+    <t>Giữ nguyên vị trí 1 phần tử - ví dụ thẻ HEADER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  position: fixed;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  top: 0;</t>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>box-child</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khác với thuộc tính "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; làm di chuyển cả phần tử khác</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS position: sticky</t>
+  </si>
+  <si>
+    <t>Làm ra các MENU, TASKBAR bám dính khi scroll chuột</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  position: sticky;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  margin top: 10px;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>- rgb()</t>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>// phần tử con của phần từ .box ở trên</t>
+  </si>
+  <si>
+    <t>1 - Cấu trúc của 1 trang HTML</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HEAD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BODY&gt;</t>
+  </si>
+  <si>
+    <t>Khai báo định dạng HTML, XML</t>
+  </si>
+  <si>
+    <t>Nội dung trang Web</t>
+  </si>
+  <si>
+    <t>2. So sánh thuộc tính id và class</t>
+  </si>
+  <si>
+    <t>Giống nhau: đều dùng để định danh/phần tử phần tử</t>
+  </si>
+  <si>
+    <t>Khác nhau:</t>
+  </si>
+  <si>
+    <t>+ Là duy nhất</t>
+  </si>
+  <si>
+    <t>+ Dùng chung cho nhiều phần tử</t>
+  </si>
+  <si>
+    <t>+ .class</t>
+  </si>
+  <si>
+    <t>+ cú pháp selector: #id</t>
+  </si>
+  <si>
+    <t>+ Style một phần tử duy nhất</t>
+  </si>
+  <si>
+    <t>+ Style cho nhiều phần tử</t>
+  </si>
+  <si>
+    <t>#id</t>
+  </si>
+  <si>
+    <t>.class</t>
+  </si>
+  <si>
+    <t>3. CSS Selector</t>
+  </si>
+  <si>
+    <t>Là con trỏ trong CSS để chỉ định và tạo kiểu.</t>
+  </si>
+  <si>
+    <t>6 loại: element, pseudo element, class, pseudo class, id, attribute</t>
+  </si>
+  <si>
+    <t>4. Box model là gì?</t>
+  </si>
+  <si>
+    <t>Khoảng không gian mà mỗi phần tử chiếm trên UI</t>
+  </si>
+  <si>
+    <t>Gồm: Content, padding, border, margin</t>
+  </si>
+  <si>
+    <t>các phần tử nằm trên 1 dòng. Hết dòng mới xuống dòng mới.</t>
+  </si>
+  <si>
+    <t>Tôn trọng left-right, không tôn trọng top-bottom</t>
+  </si>
+  <si>
+    <t>Không thể set width, height.</t>
+  </si>
+  <si>
+    <t>Display: block</t>
+  </si>
+  <si>
+    <t>Display: inline</t>
+  </si>
+  <si>
+    <t>5. Display: block và Display: inline</t>
+  </si>
+  <si>
+    <t>Tôn trọng left-right-top-bottom</t>
+  </si>
+  <si>
+    <t>Mỗi phần tử trên 1 dòng</t>
+  </si>
+  <si>
+    <t>Nếu không set width thì mặc định là full-width.</t>
+  </si>
+  <si>
+    <t>Display: inline-block</t>
+  </si>
+  <si>
+    <t>các phần tử nằm trên 1 dòng</t>
+  </si>
+  <si>
+    <t>Tôn trọng left-right-top-bottom, padding</t>
+  </si>
+  <si>
+    <t>Có thể set width, height</t>
+  </si>
+  <si>
+    <t>Khai báo title, meta, style, link</t>
+  </si>
+  <si>
+    <t>NOTE: nguyên tắc 4px -&gt; các thông số weight/height nên chia hết cho 4.</t>
+  </si>
+  <si>
+    <t>3.1. Header</t>
+  </si>
+  <si>
+    <t>Header CSS</t>
+  </si>
+  <si>
+    <t>Gồm Home, Band, Tour, Contact, More</t>
+  </si>
+  <si>
+    <t>Navigation bar chính: ul#nav&gt;(li*5&gt;a)</t>
+  </si>
+  <si>
+    <t>Navigation bar phụ thuộc More: ul.subnav&gt;(li*3&gt;a)</t>
+  </si>
+  <si>
+    <t>Gồm Merchandise, Extras, Media</t>
+  </si>
+  <si>
+    <t>text-transform: uppercase;</t>
+  </si>
+  <si>
+    <t>CSS: inline-block; hover; line-height; padding;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> text-decoration: none; //bỏ gạch chân</t>
+  </si>
+  <si>
+    <t>CSS: block; min-width; line-height; padding;</t>
+  </si>
+  <si>
+    <t>position: absolute; top: 100%; // hiện subnav bên dưới nav</t>
+  </si>
+  <si>
+    <t>#nav li:hover .subnav: // ẩn, hiện subnav</t>
+  </si>
+  <si>
+    <t>position: relative; //để set vị trí hiển thị subnav;</t>
+  </si>
+  <si>
+    <t>box-shadow: 0 0 10px rgba(0, 0, 0, 0.3);</t>
+  </si>
+  <si>
+    <t>Header Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  position: fixed;  /* Surf on top of other element */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  left: 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  right: 0;</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Bộ icon themify</t>
+  </si>
+  <si>
+    <t>CSS Flexbox là gì?</t>
+  </si>
+  <si>
+    <t>Thuộc tính CSS trong Flexbox</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>flex-direction</t>
+  </si>
+  <si>
+    <t>flex-wrap</t>
+  </si>
+  <si>
+    <t>flex-basis</t>
+  </si>
+  <si>
+    <t>justify-content</t>
+  </si>
+  <si>
+    <t>align-content</t>
+  </si>
+  <si>
+    <t>align-self</t>
+  </si>
+  <si>
+    <t>flex-grow</t>
+  </si>
+  <si>
+    <t>flex-shrink</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>flex | inline-flex</t>
+  </si>
+  <si>
+    <t>nowrap | wrap | wrap-reverse</t>
+  </si>
+  <si>
+    <t>&lt;length&gt;</t>
+  </si>
+  <si>
+    <t>flex-start | flex-end | center</t>
+  </si>
+  <si>
+    <t>&lt;number&gt;</t>
+  </si>
+  <si>
+    <t>Sử dụng flexbox</t>
+  </si>
+  <si>
+    <t>Set kích thước main-size</t>
+  </si>
+  <si>
+    <t>Giảm kích thước main-size của flex-item</t>
+  </si>
+  <si>
+    <t>Tăng kích thước main-size của flex-item</t>
+  </si>
+  <si>
+    <t>Thứ tự hiển thị của các flex-item</t>
+  </si>
+  <si>
+    <t>flex-flow</t>
+  </si>
+  <si>
+    <t>Shorthand của flex-direction và flex-wrap</t>
+  </si>
+  <si>
+    <t>Một kiểu bố cục trang có khả năng tự cân đổi kích thước các phần tử bên trong.</t>
+  </si>
+  <si>
+    <t>Thay đổi chiều rộng, chiều cao, và thứ tự.</t>
+  </si>
+  <si>
+    <t>Note: Flex phù hợp cho phạm vi nhỏ (như những khung trong Website).</t>
+  </si>
+  <si>
+    <t>khi thiết lập bố cục ở phạm vi lớn hơn thì vẫn nên sử dụng dạng lưới (grid layout)</t>
+  </si>
+  <si>
+    <t>là thành phần lớn bao quanh các phần tử bên trong.</t>
+  </si>
+  <si>
+    <t>Sắp xếp theo chiều ngang hoặc chiều dọc.</t>
+  </si>
+  <si>
+    <t>Flex -item</t>
+  </si>
+  <si>
+    <t>Flex-container</t>
+  </si>
+  <si>
+    <t>Phần tử con bên trong flex-container</t>
+  </si>
+  <si>
+    <t>thiết lập sử dụng bao nhiêu cột, thứ tự hiển thị</t>
+  </si>
+  <si>
+    <t>Trục chính điều khiển hướng hiển thị các item (flex-direction)</t>
+  </si>
+  <si>
+    <t>Hiển thị item từ main-start tới main-end</t>
+  </si>
+  <si>
+    <t>Kích thước mỗi item dựa theo trục main-axis là main-size</t>
+  </si>
+  <si>
+    <t>Main-axis, main-start, main-end, main-size</t>
+  </si>
+  <si>
+    <t>Cross-axis, cross-start, cross-end, cross-size</t>
+  </si>
+  <si>
+    <t>Trục vuông góc với main-axis.</t>
+  </si>
+  <si>
+    <t>Kích thước mỗi item dựa theo trục cross-axis là cross-size</t>
+  </si>
+  <si>
+    <t>Hiển thị item theo chiều từ cross-start tới cross-end (flex-wrap)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ: </t>
+  </si>
+  <si>
+    <t>#header .content a { color: red; }</t>
+  </si>
+  <si>
+    <t>Selector thông thường:</t>
+  </si>
+  <si>
+    <t>Selector trực tiếp:</t>
+  </si>
+  <si>
+    <t>#nav &gt; li &gt; a { text-transform: uppercase; };</t>
+  </si>
+  <si>
+    <t>justify-self</t>
+  </si>
+  <si>
+    <t>align-items</t>
+  </si>
+  <si>
+    <t>row | column |row-reverse | column-reverse</t>
+  </si>
+  <si>
+    <t>Shorthand của flex-grow, flex-shrink, và flex-basis theo thứ tự</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Căn chỉnh flex-container theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main-axis</t>
+    </r>
+  </si>
+  <si>
+    <t>flex-container</t>
+  </si>
+  <si>
+    <r>
+      <t>Nằm ngang hay nằm dọc (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main-axis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xuống dòng hay nằm trên 1 dòng (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cross-axis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>flex-item</t>
+  </si>
+  <si>
+    <t>flex-start | flex-end | center | baseline | stretch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Căn chỉnh flex-container theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cross-axis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Căn chỉnh flex-item theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cross-axis</t>
+    </r>
+  </si>
+  <si>
+    <t>flex-start | flex-end | center | space-between | space-around | space-evenly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Căn chỉnh từng flex-item theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main-axis</t>
+    </r>
+  </si>
+  <si>
+    <t>Tại sao cần reset CSS?</t>
+  </si>
+  <si>
+    <t>Trình duyệt tự động có sẵn CSS -&gt; cần reset</t>
+  </si>
+  <si>
+    <t>Clone UI Web bán hàng</t>
+  </si>
+  <si>
+    <t>Thư viện normalize</t>
+  </si>
+  <si>
+    <t>hoặc tự viết đơn giản --&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +1919,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -835,7 +1988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -843,6 +1996,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,6 +2155,246 @@
         <a:xfrm>
           <a:off x="6051176" y="12954000"/>
           <a:ext cx="2180952" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>432977</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659A2FD2-961E-465B-A351-692893B2A380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051176" y="6667500"/>
+          <a:ext cx="1038095" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219309</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B068D-FC16-43DA-8441-1173349B4744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051176" y="1714500"/>
+          <a:ext cx="4455133" cy="2655794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253585</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061BF8C6-E9E3-48B4-9736-3BDF82B7FEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051176" y="7048500"/>
+          <a:ext cx="6304762" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241790</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423B1579-61DC-47B9-97B7-A99670BE8980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051176" y="5143500"/>
+          <a:ext cx="2057143" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D141B8F0-2C8F-4E59-B2D3-6DDACBBC322D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051176" y="3810000"/>
+          <a:ext cx="1389530" cy="1151749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,93 +2669,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{5D9A69F5-882E-4CA8-A097-993FB222F9C3}"/>
     <hyperlink ref="C14" r:id="rId2" xr:uid="{AEF3F415-38F7-4E05-95F7-033FF13AD8EC}"/>
+    <hyperlink ref="K14" location="TheBand!A1" display="TheBand" xr:uid="{49623F2B-075A-4D1D-A691-9ACDE6F72A75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1368,53 +2770,62 @@
   <dimension ref="B2:L79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -1771,32 +3182,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E877433-B38A-4793-8447-EEE6392CE0C0}">
-  <dimension ref="B2:M88"/>
+  <dimension ref="B1:M104"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1812,7 +3228,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>89</v>
@@ -1917,7 +3333,7 @@
         <v>105</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -1950,7 +3366,7 @@
         <v>117</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -1958,10 +3374,10 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -1969,7 +3385,7 @@
         <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>60</v>
@@ -1980,7 +3396,7 @@
         <v>112</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -1999,7 +3415,7 @@
         <v>60</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -2007,12 +3423,12 @@
         <v>114</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K41" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -2020,237 +3436,305 @@
         <v>60</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D64" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D65" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D66" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D76" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D77" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D78" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D81" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D82" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J82" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D83" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J84" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D87" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D88" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D93" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D94" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D99" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D100" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D104" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2260,119 +3744,1105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF8412-9BF0-4D1F-B3A1-9D4DE092B57E}">
-  <dimension ref="B2:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E0EA08-A375-4C08-A2D9-5FB9731F6D4A}">
+  <dimension ref="B1:K70"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" t="s">
+        <v>261</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" t="s">
+        <v>264</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" t="s">
+        <v>278</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" t="s">
+        <v>279</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" t="s">
+        <v>286</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>299</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8F9F80-AB57-4CA4-A8C5-FDD5B3F3CCBA}">
+  <dimension ref="A2:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>183</v>
+      <c r="B3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>190</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>191</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>192</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>194</v>
+      <c r="C13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>195</v>
+      <c r="C15" s="11" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E32" t="s">
+        <v>392</v>
+      </c>
+      <c r="I32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="I34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" t="s">
+        <v>393</v>
+      </c>
+      <c r="I35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="I36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="11"/>
+      <c r="I38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E39" t="s">
+        <v>395</v>
+      </c>
+      <c r="I39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" t="s">
+        <v>395</v>
+      </c>
+      <c r="I40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="11"/>
+      <c r="I42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" t="s">
+        <v>395</v>
+      </c>
+      <c r="I43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" t="s">
+        <v>394</v>
+      </c>
+      <c r="I44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>435</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" t="s">
+        <v>396</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E46" t="s">
+        <v>396</v>
+      </c>
+      <c r="I46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E47" t="s">
+        <v>396</v>
+      </c>
+      <c r="I47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>435</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E48" t="s">
+        <v>396</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CD8B08-E384-40E5-95F1-F89215990923}">
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>442</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>445</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF8412-9BF0-4D1F-B3A1-9D4DE092B57E}">
+  <dimension ref="B2:I59"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>206</v>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2381,5 +4851,221 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{496E912C-2D73-4687-B2FB-45C2AE07A556}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80607EF-8E5E-4B7C-AFBE-C633400FB2EE}">
+  <dimension ref="B2:H41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>424</v>
+      </c>
+      <c r="G20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>425</v>
+      </c>
+      <c r="G21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/HTML_CSS.xlsx
+++ b/HTML_CSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\202301_ReactJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D048204-C53E-4881-BD53-09240B6FF8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9410CB06-EE85-46DC-A78D-D97308DD1B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="2.CSS" sheetId="3" r:id="rId3"/>
     <sheet name="3.CSS" sheetId="5" r:id="rId4"/>
     <sheet name="4.Flexbox" sheetId="7" r:id="rId5"/>
-    <sheet name="Theshop" sheetId="8" r:id="rId6"/>
-    <sheet name="TheBand" sheetId="4" r:id="rId7"/>
-    <sheet name="QA1" sheetId="6" r:id="rId8"/>
+    <sheet name="5.BEM" sheetId="9" r:id="rId6"/>
+    <sheet name="Theshop" sheetId="8" r:id="rId7"/>
+    <sheet name="TheBand" sheetId="4" r:id="rId8"/>
+    <sheet name="QA1" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="494">
   <si>
     <t>HTML, CSS từ Zero tới Hero</t>
   </si>
@@ -1868,12 +1869,201 @@
   <si>
     <t>hoặc tự viết đơn giản --&gt;</t>
   </si>
+  <si>
+    <t>BEM là gì?</t>
+  </si>
+  <si>
+    <t>BEM</t>
+  </si>
+  <si>
+    <t>Là tiêu chuẩn đặt tên class khi viết CSS</t>
+  </si>
+  <si>
+    <t>Block Element Modifier</t>
+  </si>
+  <si>
+    <t>Cú pháp:</t>
+  </si>
+  <si>
+    <t>- .block</t>
+  </si>
+  <si>
+    <t>Tại sao cần BEM?</t>
+  </si>
+  <si>
+    <t>Modifier: class bổ sung ý nghĩa cho Block hoặc Element.</t>
+  </si>
+  <si>
+    <t>Member đặt tên class trùng nhau -&gt; CSS đè lên nhau</t>
+  </si>
+  <si>
+    <t>Mỗi người đặt tên một kiểu</t>
+  </si>
+  <si>
+    <t>- .block__element</t>
+  </si>
+  <si>
+    <t>- .block--modifier</t>
+  </si>
+  <si>
+    <t>- .block__element--modifier</t>
+  </si>
+  <si>
+    <t>Tính ứng dụng</t>
+  </si>
+  <si>
+    <t>Xây dựng layout Website</t>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>.card__heading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.card </t>
+  </si>
+  <si>
+    <t>.card--success</t>
+  </si>
+  <si>
+    <t>.card__btn--large</t>
+  </si>
+  <si>
+    <t>Xây dựng thành phần trên Website</t>
+  </si>
+  <si>
+    <t>Ưu điểm:</t>
+  </si>
+  <si>
+    <t>- Dễ hiểu</t>
+  </si>
+  <si>
+    <t>- Tái sử dụng dễ dàng</t>
+  </si>
+  <si>
+    <t>- phù hợp teamwork</t>
+  </si>
+  <si>
+    <t>- Tính module, không lo trùng CSS</t>
+  </si>
+  <si>
+    <t>Nhược điểm:</t>
+  </si>
+  <si>
+    <t>- Tên class dài</t>
+  </si>
+  <si>
+    <t>Ưu/nhược điểm</t>
+  </si>
+  <si>
+    <t>Khi nào dùng BEM:</t>
+  </si>
+  <si>
+    <t>dự án nhiều members</t>
+  </si>
+  <si>
+    <t>dự án lớn, số lượng page nhiều hoặc số lượng thành phần trên giao diện nhiều</t>
+  </si>
+  <si>
+    <t>Trường hợp block lồng block</t>
+  </si>
+  <si>
+    <t>- Block con là thành phần dùng chung</t>
+  </si>
+  <si>
+    <t>&lt;div class="card"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;div class="card__title"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ví dụ: btn dùng chung nhiều block -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dùng tên chung chứ ko thêm tiền tố block name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;div class="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>btn btn--primary pull-right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- Block con chứa nhiều element lồng nhau</t>
+  </si>
+  <si>
+    <t>Coi block con thành 1 block riêng.</t>
+  </si>
+  <si>
+    <t>.header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⇒ .navbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⇒ header-search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ⇒ header-search__input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ⇒ header-search__btn</t>
+  </si>
+  <si>
+    <t>// navbar coi như block riêng</t>
+  </si>
+  <si>
+    <t>// header-search coi như block riêng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1952,6 +2142,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -1988,7 +2186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2001,6 +2199,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4141,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8F9F80-AB57-4CA4-A8C5-FDD5B3F3CCBA}">
   <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,7 +4385,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4199,7 +4400,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4214,7 +4415,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4234,7 +4435,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4262,7 +4463,7 @@
       <c r="A32" t="s">
         <v>432</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>381</v>
       </c>
       <c r="E32" t="s">
@@ -4276,7 +4477,7 @@
       <c r="A33" t="s">
         <v>432</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>382</v>
       </c>
       <c r="E33" t="s">
@@ -4284,7 +4485,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="11"/>
+      <c r="C34" s="12"/>
       <c r="I34" t="s">
         <v>433</v>
       </c>
@@ -4293,7 +4494,7 @@
       <c r="A35" t="s">
         <v>432</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>383</v>
       </c>
       <c r="E35" t="s">
@@ -4307,7 +4508,7 @@
       <c r="A36" t="s">
         <v>432</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>402</v>
       </c>
       <c r="I36" t="s">
@@ -4318,7 +4519,7 @@
       <c r="A37" t="s">
         <v>432</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>385</v>
       </c>
       <c r="E37" t="s">
@@ -4326,7 +4527,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
+      <c r="C38" s="12"/>
       <c r="I38" t="s">
         <v>431</v>
       </c>
@@ -4335,7 +4536,7 @@
       <c r="A39" t="s">
         <v>435</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>427</v>
       </c>
       <c r="E39" t="s">
@@ -4349,7 +4550,7 @@
       <c r="A40" t="s">
         <v>432</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>386</v>
       </c>
       <c r="E40" t="s">
@@ -4363,7 +4564,7 @@
       <c r="A41" t="s">
         <v>432</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>428</v>
       </c>
       <c r="E41" t="s">
@@ -4371,7 +4572,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="11"/>
+      <c r="C42" s="12"/>
       <c r="I42" t="s">
         <v>437</v>
       </c>
@@ -4380,7 +4581,7 @@
       <c r="A43" t="s">
         <v>435</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>387</v>
       </c>
       <c r="E43" t="s">
@@ -4394,7 +4595,7 @@
       <c r="A44" t="s">
         <v>435</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>384</v>
       </c>
       <c r="E44" t="s">
@@ -4408,7 +4609,7 @@
       <c r="A45" t="s">
         <v>435</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>388</v>
       </c>
       <c r="E45" t="s">
@@ -4422,7 +4623,7 @@
       <c r="A46" t="s">
         <v>435</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>389</v>
       </c>
       <c r="E46" t="s">
@@ -4436,7 +4637,7 @@
       <c r="A47" t="s">
         <v>435</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>390</v>
       </c>
       <c r="E47" t="s">
@@ -4450,7 +4651,7 @@
       <c r="A48" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>391</v>
       </c>
       <c r="E48" t="s">
@@ -4467,6 +4668,253 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5BE8F5-DE4C-4D1F-B7D3-0B7E1D820A82}">
+  <dimension ref="B2:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>450</v>
+      </c>
+      <c r="H16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+      <c r="E36" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+      <c r="F37" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+      <c r="F38" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+      <c r="F39" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="6"/>
+      <c r="F40" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CD8B08-E384-40E5-95F1-F89215990923}">
   <dimension ref="B2:I15"/>
   <sheetViews>
@@ -4531,7 +4979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF8412-9BF0-4D1F-B3A1-9D4DE092B57E}">
   <dimension ref="B2:I59"/>
   <sheetViews>
@@ -4856,7 +5304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80607EF-8E5E-4B7C-AFBE-C633400FB2EE}">
   <dimension ref="B2:H41"/>
   <sheetViews>
